--- a/Result/MT_BATCH_10.xlsx
+++ b/Result/MT_BATCH_10.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="20115" windowHeight="12090"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="MT_BATCH_10" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>thread_id</t>
   </si>
@@ -43,9 +43,6 @@
     <t>CPU Usage</t>
   </si>
   <si>
-    <t>Fairness</t>
-  </si>
-  <si>
     <t>Wait Time</t>
   </si>
   <si>
@@ -53,6 +50,18 @@
   </si>
   <si>
     <t>Context Switch</t>
+  </si>
+  <si>
+    <t>Fairness(RT)</t>
+  </si>
+  <si>
+    <t>Fairness(QWT)</t>
+  </si>
+  <si>
+    <t>Elapsed Time</t>
+  </si>
+  <si>
+    <t>Fairness(ET)</t>
   </si>
 </sst>
 </file>
@@ -63,14 +72,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -78,7 +87,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -86,7 +95,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -94,7 +103,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -102,35 +111,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,7 +147,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,14 +155,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,14 +170,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -176,7 +185,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -184,14 +193,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -881,24 +890,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="15" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,28 +931,37 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -966,16 +988,20 @@
         <f>D2</f>
         <v>29.39</v>
       </c>
-      <c r="K2">
-        <f>((E2+F2)/$I$12)*100</f>
+      <c r="I2">
+        <f>(C2-$B$12)/100</f>
+        <v>29.43</v>
+      </c>
+      <c r="L2">
+        <f>((E2+F2)/$J$12)*100</f>
         <v>95.792331184255175</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <f>F2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1002,16 +1028,20 @@
         <f t="shared" ref="H3:H11" si="1">D3</f>
         <v>29.42</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K11" si="2">((E3+F3)/$I$12)*100</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I11" si="2">(C3-$B$12)/100</f>
+        <v>29.44</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="3">((E3+F3)/$J$12)*100</f>
         <v>95.860196810315585</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M11" si="3">F3</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P11" si="4">F3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1038,16 +1068,20 @@
         <f t="shared" si="1"/>
         <v>29.32</v>
       </c>
-      <c r="K4">
+      <c r="I4">
         <f t="shared" si="2"/>
+        <v>29.34</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
         <v>95.588734306073988</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="3"/>
+      <c r="P4">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1074,16 +1108,20 @@
         <f t="shared" si="1"/>
         <v>29.38</v>
       </c>
-      <c r="K5">
+      <c r="I5">
         <f t="shared" si="2"/>
+        <v>29.39</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
         <v>95.75839837122497</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
+      <c r="P5">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1110,16 +1148,20 @@
         <f t="shared" si="1"/>
         <v>29.41</v>
       </c>
-      <c r="K6">
+      <c r="I6">
         <f t="shared" si="2"/>
+        <v>29.42</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
         <v>95.860196810315585</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
+      <c r="P6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1146,16 +1188,20 @@
         <f t="shared" si="1"/>
         <v>29.4</v>
       </c>
-      <c r="K7">
+      <c r="I7">
         <f t="shared" si="2"/>
+        <v>29.41</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
         <v>95.792331184255175</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
+      <c r="P7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1182,16 +1228,20 @@
         <f t="shared" si="1"/>
         <v>29.47</v>
       </c>
-      <c r="K8">
+      <c r="I8">
         <f t="shared" si="2"/>
+        <v>29.47</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
         <v>96.029860875466582</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
+      <c r="P8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1218,16 +1268,20 @@
         <f t="shared" si="1"/>
         <v>29.3</v>
       </c>
-      <c r="K9">
+      <c r="I9">
         <f t="shared" si="2"/>
+        <v>29.3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
         <v>95.520868680013564</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
+      <c r="P9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1254,16 +1308,20 @@
         <f t="shared" si="1"/>
         <v>29.22</v>
       </c>
-      <c r="K10">
+      <c r="I10">
         <f t="shared" si="2"/>
+        <v>29.23</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
         <v>95.283338988802171</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
+      <c r="P10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1290,16 +1348,20 @@
         <f t="shared" si="1"/>
         <v>29.23</v>
       </c>
-      <c r="K11">
+      <c r="I11">
         <f t="shared" si="2"/>
+        <v>29.24</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
         <v>95.283338988802171</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
+      <c r="P11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12">
         <f>MIN(B2:B11)</f>
         <v>1718550883</v>
@@ -1312,23 +1374,31 @@
         <f>AVERAGE(H2:H11)</f>
         <v>29.354000000000003</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>29.47</v>
       </c>
-      <c r="J12">
-        <f>100/I12</f>
+      <c r="K12">
+        <f>100/J12</f>
         <v>3.3932813030200206</v>
       </c>
-      <c r="K12">
-        <f>AVERAGE(K2:K11)</f>
+      <c r="L12">
+        <f>AVERAGE(L2:L11)</f>
         <v>95.676959619952498</v>
       </c>
-      <c r="L12">
+      <c r="M12">
+        <f>_xlfn.STDEV.P(G2:G11)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N12">
         <f>_xlfn.STDEV.P(D2:D11)</f>
         <v>7.9018985060553604E-2</v>
       </c>
-      <c r="M12">
-        <f>AVERAGE(M2:M11)</f>
+      <c r="O12">
+        <f>_xlfn.STDEV.P(I2:I11)</f>
+        <v>8.0752708932889869E-2</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE(P2:P11)</f>
         <v>0</v>
       </c>
     </row>
